--- a/Documentation/student_accounts_to_be_created.xlsx
+++ b/Documentation/student_accounts_to_be_created.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1270">
   <si>
     <t xml:space="preserve">sid</t>
   </si>
@@ -3821,6 +3821,15 @@
   </si>
   <si>
     <t xml:space="preserve">rachel_b242826cs@nitc.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B220244CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRISS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrisscharls9@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3911,13 +3920,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3940,18 +3953,124 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K86" activeCellId="0" sqref="K80:L86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A488" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H502" activeCellId="0" sqref="H502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="37.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
@@ -3960,34 +4079,34 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="16.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="20"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="37.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15539,7 +15658,7 @@
       <c r="A446" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="B446" s="3" t="s">
+      <c r="B446" s="4" t="s">
         <v>394</v>
       </c>
       <c r="C446" s="1" t="s">
@@ -16991,9 +17110,38 @@
         <v>7</v>
       </c>
     </row>
+    <row r="502" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D502" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E502" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F502" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G502" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H502" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C502" r:id="rId1" display="chrisscharls9@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Documentation/student_accounts_to_be_created.xlsx
+++ b/Documentation/student_accounts_to_be_created.xlsx
@@ -4066,8 +4066,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A488" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H502" activeCellId="0" sqref="H502"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A492" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
